--- a/excel_files/m_teachers.xlsx
+++ b/excel_files/m_teachers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="15885" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="m_teachers" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -995,15 +992,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,13 +1016,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1036,13 +1030,10 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1052,9 +1043,6 @@
       </c>
       <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
